--- a/Work/RAIN公司记录.xlsx
+++ b/Work/RAIN公司记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -81,54 +81,54 @@
     <t xml:space="preserve">OPPO</t>
   </si>
   <si>
-    <t xml:space="preserve">careers.oppo.com/university/oppo/campus/post?recruitType=Intern</t>
+    <t xml:space="preserve">careers.oppo.com/university/oppo/center/history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美团</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhaopin.meituan.com/web/position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网已投递(北京)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字节跳动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs.bytedance.com/campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网已投递(北京/上海)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">momenta.jobs.feishu.cn/intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网已投递(北京/上海/深圳)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博世中国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bosch.com.cn/careers/job-offers/internship/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6个月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">影石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insta360.com/cn/jobs</t>
   </si>
   <si>
     <t xml:space="preserve">没开</t>
   </si>
   <si>
-    <t xml:space="preserve">美团</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhaopin.meituan.com/web/position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(北京)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字节跳动</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs.bytedance.com/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(北京/上海)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">momenta.jobs.feishu.cn/intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(北京/上海/深圳)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博世中国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bosch.com.cn/careers/job-offers/internship/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6个月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">影石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insta360.com/cn/jobs</t>
-  </si>
-  <si>
     <t xml:space="preserve">蔚来汽车</t>
   </si>
   <si>
@@ -168,9 +168,6 @@
     <t xml:space="preserve">xiaopeng.jobs.feishu.cn/campus</t>
   </si>
   <si>
-    <t xml:space="preserve">250?吃土</t>
-  </si>
-  <si>
     <t xml:space="preserve">联影微电子</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
   </si>
   <si>
     <t xml:space="preserve">sensetime.com/cn/join-us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">没上海岗位</t>
   </si>
   <si>
     <t xml:space="preserve">寒武纪</t>
@@ -292,7 +286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,24 +324,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF2A6099"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF2A6099"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -398,7 +380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -423,15 +405,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,13 +489,13 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.04"/>
   </cols>
   <sheetData>
@@ -565,79 +539,79 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -650,7 +624,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -662,7 +636,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -674,7 +648,7 @@
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1"/>
@@ -687,8 +661,8 @@
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -700,7 +674,7 @@
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1"/>
@@ -717,212 +691,212 @@
         <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -954,7 +928,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="career.huawei.com/reccampportal/portal5/campus-recruitment-detail.html?jobId=6557&amp;dataSource=1&amp;jobType=1&amp;recruitType=CR&amp;sourceType=001"/>
     <hyperlink ref="B3" r:id="rId2" display="hr-campus.vivo.com/intern/jobs"/>
-    <hyperlink ref="B4" r:id="rId3" display="careers.oppo.com/university/oppo/campus/post?recruitType=Intern"/>
+    <hyperlink ref="B4" r:id="rId3" display="careers.oppo.com/university/oppo/center/history"/>
     <hyperlink ref="B5" r:id="rId4" display="zhaopin.meituan.com/web/position"/>
     <hyperlink ref="B6" r:id="rId5" display="jobs.bytedance.com/campus"/>
     <hyperlink ref="B7" r:id="rId6" display="momenta.jobs.feishu.cn/intern"/>

--- a/Work/RAIN公司记录.xlsx
+++ b/Work/RAIN公司记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -111,6 +111,36 @@
     <t xml:space="preserve">官网已投递(北京/上海/深圳)</t>
   </si>
   <si>
+    <t xml:space="preserve">小米</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi.jobs.f.mioffice.cn/internship/?keywords=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=&amp;spread=6AA3R7B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only汽车嵌入式岗位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平头哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recruitment.t-head.cn/campus/home?lang=zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">没开</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石头科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roborock.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">京东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campus.jd.com/#/details?id=4878</t>
+  </si>
+  <si>
     <t xml:space="preserve">博世中国</t>
   </si>
   <si>
@@ -126,7 +156,10 @@
     <t xml:space="preserve">insta360.com/cn/jobs</t>
   </si>
   <si>
-    <t xml:space="preserve">没开</t>
+    <t xml:space="preserve">联想</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talent.lenovo.com.cn/position?projectType=2</t>
   </si>
   <si>
     <t xml:space="preserve">蔚来汽车</t>
@@ -141,6 +174,12 @@
     <t xml:space="preserve">campushr.hikvision.com/school?schoolType=nozxf</t>
   </si>
   <si>
+    <t xml:space="preserve">汇川技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inovance.zhiye.com/campus</t>
+  </si>
+  <si>
     <t xml:space="preserve">算能科技</t>
   </si>
   <si>
@@ -168,6 +207,27 @@
     <t xml:space="preserve">xiaopeng.jobs.feishu.cn/campus</t>
   </si>
   <si>
+    <t xml:space="preserve">地平线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4个月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理想汽车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.lixiang.com/employ/campus.html?fromJob=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亚迪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job.byd.com/portal/pc/#/school/home</t>
+  </si>
+  <si>
     <t xml:space="preserve">联影微电子</t>
   </si>
   <si>
@@ -177,6 +237,12 @@
     <t xml:space="preserve">BOSS</t>
   </si>
   <si>
+    <t xml:space="preserve">中科创达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
+  </si>
+  <si>
     <t xml:space="preserve">卓驭</t>
   </si>
   <si>
@@ -277,6 +343,9 @@
   </si>
   <si>
     <t xml:space="preserve">4个月以上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.mokahr.com/campus-recruitment/cambricon/44201#/job/4cd94bda-3b54-48a5-9aea-4249576c8a58</t>
   </si>
 </sst>
 </file>
@@ -286,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,6 +399,12 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -380,7 +455,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,11 +476,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,7 +576,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -591,324 +678,446 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
+      <c r="B13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>41</v>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>25</v>
+      <c r="C25" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>25</v>
+      <c r="C29" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>76</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -932,30 +1141,41 @@
     <hyperlink ref="B5" r:id="rId4" display="zhaopin.meituan.com/web/position"/>
     <hyperlink ref="B6" r:id="rId5" display="jobs.bytedance.com/campus"/>
     <hyperlink ref="B7" r:id="rId6" display="momenta.jobs.feishu.cn/intern"/>
-    <hyperlink ref="B8" r:id="rId7" display="bosch.com.cn/careers/job-offers/internship/"/>
-    <hyperlink ref="B9" r:id="rId8" display="insta360.com/cn/jobs"/>
-    <hyperlink ref="B10" r:id="rId9" display="nio.jobs.feishu.cn/campus"/>
-    <hyperlink ref="B11" r:id="rId10" display="campushr.hikvision.com/school?schoolType=nozxf"/>
-    <hyperlink ref="B12" r:id="rId11" display="jobs.sophgo.com/trainee"/>
-    <hyperlink ref="B13" r:id="rId12" display="ponyai.jobs.feishu.cn/ponycampus/position/application"/>
-    <hyperlink ref="B14" r:id="rId13" location="/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=上海市" display="app.mokahr.com/campus-recruitment/zte/46903#/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82"/>
-    <hyperlink ref="B15" r:id="rId14" display="xiaopeng.jobs.feishu.cn/campus"/>
-    <hyperlink ref="B16" r:id="rId15" display="united-imaging.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B17" r:id="rId16" display="we.zyt.com/jobs"/>
-    <hyperlink ref="B18" r:id="rId17" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
-    <hyperlink ref="B20" r:id="rId18" display="talent.quectel.com/campus"/>
-    <hyperlink ref="B21" r:id="rId19" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
-    <hyperlink ref="B22" r:id="rId20" display="gigadevice.com.cn/about/career"/>
-    <hyperlink ref="B23" r:id="rId21" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
-    <hyperlink ref="B24" r:id="rId22" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
-    <hyperlink ref="B25" r:id="rId23" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
-    <hyperlink ref="B26" r:id="rId24" display="job.dahuatech.com/"/>
-    <hyperlink ref="B27" r:id="rId25" display="sensetime.com/cn/join-us"/>
-    <hyperlink ref="B28" r:id="rId26" location="/" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/"/>
-    <hyperlink ref="B29" r:id="rId27" display="verisilicon.com/cn/Careers"/>
-    <hyperlink ref="B30" r:id="rId28" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
-    <hyperlink ref="B31" r:id="rId29" display="realsil.com.cn/Home/PositionDetails/21"/>
-    <hyperlink ref="B32" r:id="rId30" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
+    <hyperlink ref="B8" r:id="rId7" display="xiaomi.jobs.f.mioffice.cn/internship/?keywords=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=&amp;spread=6AA3R7B"/>
+    <hyperlink ref="B9" r:id="rId8" display="recruitment.t-head.cn/campus/home?lang=zh"/>
+    <hyperlink ref="B10" r:id="rId9" display="roborock.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B11" r:id="rId10" location="/details?id=4878" display="campus.jd.com/#/details?id=4878"/>
+    <hyperlink ref="B12" r:id="rId11" display="bosch.com.cn/careers/job-offers/internship/"/>
+    <hyperlink ref="B13" r:id="rId12" display="insta360.com/cn/jobs"/>
+    <hyperlink ref="B14" r:id="rId13" display="talent.lenovo.com.cn/position?projectType=2"/>
+    <hyperlink ref="B15" r:id="rId14" display="nio.jobs.feishu.cn/campus"/>
+    <hyperlink ref="B16" r:id="rId15" display="campushr.hikvision.com/school?schoolType=nozxf"/>
+    <hyperlink ref="B17" r:id="rId16" display="inovance.zhiye.com/campus"/>
+    <hyperlink ref="B18" r:id="rId17" display="jobs.sophgo.com/trainee"/>
+    <hyperlink ref="B19" r:id="rId18" display="ponyai.jobs.feishu.cn/ponycampus/position/application"/>
+    <hyperlink ref="B20" r:id="rId19" location="/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=上海市" display="app.mokahr.com/campus-recruitment/zte/46903#/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82"/>
+    <hyperlink ref="B21" r:id="rId20" display="xiaopeng.jobs.feishu.cn/campus"/>
+    <hyperlink ref="B22" r:id="rId21" display="wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern"/>
+    <hyperlink ref="B23" r:id="rId22" display="www.lixiang.com/employ/campus.html?fromJob=1"/>
+    <hyperlink ref="B24" r:id="rId23" location="/school/home" display="job.byd.com/portal/pc/#/school/home"/>
+    <hyperlink ref="B25" r:id="rId24" display="united-imaging.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B26" r:id="rId25" display="thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
+    <hyperlink ref="B27" r:id="rId26" display="we.zyt.com/jobs"/>
+    <hyperlink ref="B28" r:id="rId27" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
+    <hyperlink ref="B30" r:id="rId28" display="talent.quectel.com/campus"/>
+    <hyperlink ref="B31" r:id="rId29" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
+    <hyperlink ref="B32" r:id="rId30" display="gigadevice.com.cn/about/career"/>
+    <hyperlink ref="B33" r:id="rId31" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
+    <hyperlink ref="B34" r:id="rId32" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
+    <hyperlink ref="B35" r:id="rId33" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
+    <hyperlink ref="B36" r:id="rId34" display="job.dahuatech.com/"/>
+    <hyperlink ref="B37" r:id="rId35" display="sensetime.com/cn/join-us"/>
+    <hyperlink ref="B38" r:id="rId36" location="/" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/"/>
+    <hyperlink ref="B39" r:id="rId37" display="verisilicon.com/cn/Careers"/>
+    <hyperlink ref="B40" r:id="rId38" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
+    <hyperlink ref="B41" r:id="rId39" display="realsil.com.cn/Home/PositionDetails/21"/>
+    <hyperlink ref="B42" r:id="rId40" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
+    <hyperlink ref="B43" r:id="rId41" location="/job/4cd94bda-3b54-48a5-9aea-4249576c8a58" display="app.mokahr.com/campus-recruitment/cambricon/44201#/job/4cd94bda-3b54-48a5-9aea-4249576c8a58"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Work/RAIN公司记录.xlsx
+++ b/Work/RAIN公司记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -346,6 +346,54 @@
   </si>
   <si>
     <t xml:space="preserve">app.mokahr.com/campus-recruitment/cambricon/44201#/job/4cd94bda-3b54-48a5-9aea-4249576c8a58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华米科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安克创新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">career.anker-in.com/universities/recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奥比中光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.mokahr.com/campus_apply/orbbec/2679#/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">涂鸦智能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追觅科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreame.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灵动微电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.mindmotion.com.cn/hr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑芝麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bsthr.zhiye.com/intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">速腾聚创</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70</t>
   </si>
 </sst>
 </file>
@@ -455,7 +503,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,10 +521,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,7 +620,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -678,52 +722,52 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -734,7 +778,7 @@
       <c r="B12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1"/>
@@ -747,7 +791,7 @@
       <c r="B13" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1"/>
@@ -760,7 +804,7 @@
       <c r="B14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
@@ -771,7 +815,7 @@
       <c r="B15" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1"/>
@@ -783,7 +827,7 @@
       <c r="B16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="1"/>
@@ -796,7 +840,7 @@
       <c r="B17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1"/>
@@ -857,37 +901,37 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1"/>
@@ -899,7 +943,7 @@
       <c r="B25" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="1"/>
@@ -912,7 +956,7 @@
       <c r="B26" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
@@ -923,7 +967,7 @@
       <c r="B27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="1"/>
@@ -935,7 +979,7 @@
       <c r="B28" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="1"/>
@@ -960,7 +1004,7 @@
       <c r="B30" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="1"/>
@@ -972,7 +1016,7 @@
       <c r="B31" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="1"/>
@@ -984,7 +1028,7 @@
       <c r="B32" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="1"/>
@@ -996,7 +1040,7 @@
       <c r="B33" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="1"/>
@@ -1008,7 +1052,7 @@
       <c r="B34" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="1"/>
@@ -1020,7 +1064,7 @@
       <c r="B35" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="1"/>
@@ -1032,7 +1076,7 @@
       <c r="B36" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="1"/>
@@ -1044,7 +1088,7 @@
       <c r="B37" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="1"/>
@@ -1056,7 +1100,7 @@
       <c r="B38" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="1"/>
@@ -1068,7 +1112,7 @@
       <c r="B39" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="1"/>
@@ -1080,7 +1124,7 @@
       <c r="B40" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="1"/>
@@ -1092,7 +1136,7 @@
       <c r="B41" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1103,19 +1147,92 @@
       <c r="B42" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1176,6 +1293,14 @@
     <hyperlink ref="B41" r:id="rId39" display="realsil.com.cn/Home/PositionDetails/21"/>
     <hyperlink ref="B42" r:id="rId40" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
     <hyperlink ref="B43" r:id="rId41" location="/job/4cd94bda-3b54-48a5-9aea-4249576c8a58" display="app.mokahr.com/campus-recruitment/cambricon/44201#/job/4cd94bda-3b54-48a5-9aea-4249576c8a58"/>
+    <hyperlink ref="B44" r:id="rId42" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
+    <hyperlink ref="B45" r:id="rId43" display="career.anker-in.com/universities/recruitment"/>
+    <hyperlink ref="B46" r:id="rId44" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>
+    <hyperlink ref="B47" r:id="rId45" location="/jobs?keyword=" display="app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword="/>
+    <hyperlink ref="B48" r:id="rId46" display="dreame.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B49" r:id="rId47" display="www.mindmotion.com.cn/hr/"/>
+    <hyperlink ref="B50" r:id="rId48" display="https://bsthr.zhiye.com/intern"/>
+    <hyperlink ref="B51" r:id="rId49" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" display="https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Work/RAIN公司记录.xlsx
+++ b/Work/RAIN公司记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">career.huawei.com/reccampportal/portal5/campus-recruitment-detail.html?jobId=6557&amp;dataSource=1&amp;jobType=1&amp;recruitType=CR&amp;sourceType=001</t>
   </si>
   <si>
-    <t xml:space="preserve">部门未开</t>
+    <t xml:space="preserve">官网已投递</t>
   </si>
   <si>
     <t xml:space="preserve">VIVO</t>
@@ -75,9 +75,6 @@
     <t xml:space="preserve">hr-campus.vivo.com/intern/jobs</t>
   </si>
   <si>
-    <t xml:space="preserve">官网已投递</t>
-  </si>
-  <si>
     <t xml:space="preserve">OPPO</t>
   </si>
   <si>
@@ -117,7 +114,7 @@
     <t xml:space="preserve">xiaomi.jobs.f.mioffice.cn/internship/?keywords=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=&amp;spread=6AA3R7B</t>
   </si>
   <si>
-    <t xml:space="preserve">only汽车嵌入式岗位</t>
+    <t xml:space="preserve">官网已投递(南京 + 日常)</t>
   </si>
   <si>
     <t xml:space="preserve">平头哥</t>
@@ -213,7 +210,7 @@
     <t xml:space="preserve">wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern</t>
   </si>
   <si>
-    <t xml:space="preserve">4个月</t>
+    <t xml:space="preserve">官网已投递(南京)</t>
   </si>
   <si>
     <t xml:space="preserve">理想汽车</t>
@@ -237,6 +234,12 @@
     <t xml:space="preserve">BOSS</t>
   </si>
   <si>
+    <t xml:space="preserve">科大讯飞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://campus.iflytek.com/official-pc/jobList</t>
+  </si>
+  <si>
     <t xml:space="preserve">中科创达</t>
   </si>
   <si>
@@ -394,6 +397,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歌尔股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://goertek.hotjob.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">思必驰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aispeech.com/about/joinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">云知声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unisound.zhiye.com/campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普渡科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优必选</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zhaopin.ubtrobot.com/campus</t>
   </si>
 </sst>
 </file>
@@ -403,7 +433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -447,6 +477,12 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -503,7 +539,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -536,7 +572,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,7 +660,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,6 +668,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -664,578 +705,646 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="B29" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="B32" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="C40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="B43" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="B45" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+      <c r="B46" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="0" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
+      <c r="B47" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="0" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
+      <c r="B48" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="0" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="B49" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
+      <c r="B50" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
+      <c r="B51" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B52" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1276,31 +1385,36 @@
     <hyperlink ref="B23" r:id="rId22" display="www.lixiang.com/employ/campus.html?fromJob=1"/>
     <hyperlink ref="B24" r:id="rId23" location="/school/home" display="job.byd.com/portal/pc/#/school/home"/>
     <hyperlink ref="B25" r:id="rId24" display="united-imaging.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B26" r:id="rId25" display="thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
-    <hyperlink ref="B27" r:id="rId26" display="we.zyt.com/jobs"/>
-    <hyperlink ref="B28" r:id="rId27" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
-    <hyperlink ref="B30" r:id="rId28" display="talent.quectel.com/campus"/>
-    <hyperlink ref="B31" r:id="rId29" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
-    <hyperlink ref="B32" r:id="rId30" display="gigadevice.com.cn/about/career"/>
-    <hyperlink ref="B33" r:id="rId31" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
-    <hyperlink ref="B34" r:id="rId32" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
-    <hyperlink ref="B35" r:id="rId33" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
-    <hyperlink ref="B36" r:id="rId34" display="job.dahuatech.com/"/>
-    <hyperlink ref="B37" r:id="rId35" display="sensetime.com/cn/join-us"/>
-    <hyperlink ref="B38" r:id="rId36" location="/" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/"/>
-    <hyperlink ref="B39" r:id="rId37" display="verisilicon.com/cn/Careers"/>
-    <hyperlink ref="B40" r:id="rId38" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
-    <hyperlink ref="B41" r:id="rId39" display="realsil.com.cn/Home/PositionDetails/21"/>
-    <hyperlink ref="B42" r:id="rId40" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
-    <hyperlink ref="B43" r:id="rId41" location="/job/4cd94bda-3b54-48a5-9aea-4249576c8a58" display="app.mokahr.com/campus-recruitment/cambricon/44201#/job/4cd94bda-3b54-48a5-9aea-4249576c8a58"/>
-    <hyperlink ref="B44" r:id="rId42" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
-    <hyperlink ref="B45" r:id="rId43" display="career.anker-in.com/universities/recruitment"/>
-    <hyperlink ref="B46" r:id="rId44" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>
-    <hyperlink ref="B47" r:id="rId45" location="/jobs?keyword=" display="app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword="/>
-    <hyperlink ref="B48" r:id="rId46" display="dreame.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B49" r:id="rId47" display="www.mindmotion.com.cn/hr/"/>
-    <hyperlink ref="B50" r:id="rId48" display="https://bsthr.zhiye.com/intern"/>
-    <hyperlink ref="B51" r:id="rId49" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" display="https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://campus.iflytek.com/official-pc/jobList"/>
+    <hyperlink ref="B27" r:id="rId26" display="thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
+    <hyperlink ref="B28" r:id="rId27" display="we.zyt.com/jobs"/>
+    <hyperlink ref="B29" r:id="rId28" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
+    <hyperlink ref="B31" r:id="rId29" display="talent.quectel.com/campus"/>
+    <hyperlink ref="B32" r:id="rId30" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
+    <hyperlink ref="B33" r:id="rId31" display="gigadevice.com.cn/about/career"/>
+    <hyperlink ref="B34" r:id="rId32" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
+    <hyperlink ref="B35" r:id="rId33" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
+    <hyperlink ref="B36" r:id="rId34" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
+    <hyperlink ref="B37" r:id="rId35" display="job.dahuatech.com/"/>
+    <hyperlink ref="B38" r:id="rId36" display="sensetime.com/cn/join-us"/>
+    <hyperlink ref="B39" r:id="rId37" location="/" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/"/>
+    <hyperlink ref="B40" r:id="rId38" display="verisilicon.com/cn/Careers"/>
+    <hyperlink ref="B41" r:id="rId39" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
+    <hyperlink ref="B42" r:id="rId40" display="realsil.com.cn/Home/PositionDetails/21"/>
+    <hyperlink ref="B43" r:id="rId41" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
+    <hyperlink ref="B44" r:id="rId42" location="/job/4cd94bda-3b54-48a5-9aea-4249576c8a58" display="app.mokahr.com/campus-recruitment/cambricon/44201#/job/4cd94bda-3b54-48a5-9aea-4249576c8a58"/>
+    <hyperlink ref="B45" r:id="rId43" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
+    <hyperlink ref="B46" r:id="rId44" display="career.anker-in.com/universities/recruitment"/>
+    <hyperlink ref="B47" r:id="rId45" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>
+    <hyperlink ref="B48" r:id="rId46" location="/jobs?keyword=" display="app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword="/>
+    <hyperlink ref="B49" r:id="rId47" display="dreame.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B50" r:id="rId48" display="www.mindmotion.com.cn/hr/"/>
+    <hyperlink ref="B51" r:id="rId49" display="https://bsthr.zhiye.com/intern"/>
+    <hyperlink ref="B52" r:id="rId50" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" display="https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70"/>
+    <hyperlink ref="B53" r:id="rId51" display="https://goertek.hotjob.cn/"/>
+    <hyperlink ref="B54" r:id="rId52" display="https://www.aispeech.com/about/joinus"/>
+    <hyperlink ref="B55" r:id="rId53" display="https://unisound.zhiye.com/campus"/>
+    <hyperlink ref="B57" r:id="rId54" display="https://zhaopin.ubtrobot.com/campus"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Work/RAIN公司记录.xlsx
+++ b/Work/RAIN公司记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -171,6 +171,9 @@
     <t xml:space="preserve">campushr.hikvision.com/school?schoolType=nozxf</t>
   </si>
   <si>
+    <t xml:space="preserve">官网已投递(杭州)</t>
+  </si>
+  <si>
     <t xml:space="preserve">汇川技术</t>
   </si>
   <si>
@@ -225,45 +228,54 @@
     <t xml:space="preserve">job.byd.com/portal/pc/#/school/home</t>
   </si>
   <si>
+    <t xml:space="preserve">宇数科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.unitree.com/cn/position</t>
+  </si>
+  <si>
     <t xml:space="preserve">联影微电子</t>
   </si>
   <si>
     <t xml:space="preserve">united-imaging.zhiye.com/campus/jobs</t>
   </si>
   <si>
+    <t xml:space="preserve">科大讯飞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://campus.iflytek.com/official-pc/jobList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中科创达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卓驭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we.zyt.com/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网已投递(深圳)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大疆创新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we.dji.com/zh-CN/campus/position?from=home_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无岗位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">睿赛德</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOSS</t>
   </si>
   <si>
-    <t xml:space="preserve">科大讯飞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://campus.iflytek.com/official-pc/jobList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科创达</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卓驭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we.zyt.com/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大疆创新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we.dji.com/zh-CN/campus/position?from=home_page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无岗位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">睿赛德</t>
-  </si>
-  <si>
     <t xml:space="preserve">移远通信</t>
   </si>
   <si>
@@ -346,9 +358,6 @@
   </si>
   <si>
     <t xml:space="preserve">4个月以上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mokahr.com/campus-recruitment/cambricon/44201#/job/4cd94bda-3b54-48a5-9aea-4249576c8a58</t>
   </si>
   <si>
     <t xml:space="preserve">华米科技</t>
@@ -433,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -469,26 +478,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF2A6099"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -539,7 +528,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -568,16 +557,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -659,8 +640,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U41" activeCellId="0" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,24 +847,24 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>24</v>
@@ -893,10 +874,10 @@
     </row>
     <row r="18" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -906,10 +887,10 @@
     </row>
     <row r="19" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>12</v>
@@ -919,10 +900,10 @@
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -930,15 +911,15 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -947,22 +928,22 @@
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>24</v>
@@ -971,28 +952,27 @@
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -1014,11 +994,13 @@
       <c r="B27" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -1026,206 +1008,208 @@
         <v>66</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>24</v>
@@ -1233,42 +1217,42 @@
     </row>
     <row r="46" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>24</v>
@@ -1276,10 +1260,10 @@
     </row>
     <row r="51" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>24</v>
@@ -1287,59 +1271,59 @@
     </row>
     <row r="52" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>116</v>
+      <c r="A53" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
-        <v>118</v>
+      <c r="A54" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>120</v>
+      <c r="A55" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
-        <v>122</v>
+      <c r="A56" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>123</v>
+      <c r="A57" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>24</v>
@@ -1384,25 +1368,25 @@
     <hyperlink ref="B22" r:id="rId21" display="wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern"/>
     <hyperlink ref="B23" r:id="rId22" display="www.lixiang.com/employ/campus.html?fromJob=1"/>
     <hyperlink ref="B24" r:id="rId23" location="/school/home" display="job.byd.com/portal/pc/#/school/home"/>
-    <hyperlink ref="B25" r:id="rId24" display="united-imaging.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B26" r:id="rId25" display="https://campus.iflytek.com/official-pc/jobList"/>
-    <hyperlink ref="B27" r:id="rId26" display="thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
-    <hyperlink ref="B28" r:id="rId27" display="we.zyt.com/jobs"/>
-    <hyperlink ref="B29" r:id="rId28" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
-    <hyperlink ref="B31" r:id="rId29" display="talent.quectel.com/campus"/>
-    <hyperlink ref="B32" r:id="rId30" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
-    <hyperlink ref="B33" r:id="rId31" display="gigadevice.com.cn/about/career"/>
-    <hyperlink ref="B34" r:id="rId32" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
-    <hyperlink ref="B35" r:id="rId33" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
-    <hyperlink ref="B36" r:id="rId34" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
-    <hyperlink ref="B37" r:id="rId35" display="job.dahuatech.com/"/>
-    <hyperlink ref="B38" r:id="rId36" display="sensetime.com/cn/join-us"/>
-    <hyperlink ref="B39" r:id="rId37" location="/" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/"/>
-    <hyperlink ref="B40" r:id="rId38" display="verisilicon.com/cn/Careers"/>
-    <hyperlink ref="B41" r:id="rId39" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
-    <hyperlink ref="B42" r:id="rId40" display="realsil.com.cn/Home/PositionDetails/21"/>
-    <hyperlink ref="B43" r:id="rId41" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
-    <hyperlink ref="B44" r:id="rId42" location="/job/4cd94bda-3b54-48a5-9aea-4249576c8a58" display="app.mokahr.com/campus-recruitment/cambricon/44201#/job/4cd94bda-3b54-48a5-9aea-4249576c8a58"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://www.unitree.com/cn/position"/>
+    <hyperlink ref="B26" r:id="rId25" display="united-imaging.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://campus.iflytek.com/official-pc/jobList"/>
+    <hyperlink ref="B28" r:id="rId27" display="thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
+    <hyperlink ref="B29" r:id="rId28" display="we.zyt.com/jobs"/>
+    <hyperlink ref="B30" r:id="rId29" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
+    <hyperlink ref="B32" r:id="rId30" display="talent.quectel.com/campus"/>
+    <hyperlink ref="B33" r:id="rId31" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
+    <hyperlink ref="B34" r:id="rId32" display="gigadevice.com.cn/about/career"/>
+    <hyperlink ref="B35" r:id="rId33" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
+    <hyperlink ref="B36" r:id="rId34" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
+    <hyperlink ref="B37" r:id="rId35" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
+    <hyperlink ref="B38" r:id="rId36" display="job.dahuatech.com/"/>
+    <hyperlink ref="B39" r:id="rId37" display="sensetime.com/cn/join-us"/>
+    <hyperlink ref="B40" r:id="rId38" location="/" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/"/>
+    <hyperlink ref="B41" r:id="rId39" display="verisilicon.com/cn/Careers"/>
+    <hyperlink ref="B42" r:id="rId40" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
+    <hyperlink ref="B43" r:id="rId41" display="realsil.com.cn/Home/PositionDetails/21"/>
+    <hyperlink ref="B44" r:id="rId42" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
     <hyperlink ref="B45" r:id="rId43" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
     <hyperlink ref="B46" r:id="rId44" display="career.anker-in.com/universities/recruitment"/>
     <hyperlink ref="B47" r:id="rId45" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>

--- a/Work/RAIN公司记录.xlsx
+++ b/Work/RAIN公司记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -138,6 +138,15 @@
     <t xml:space="preserve">campus.jd.com/#/details?id=4878</t>
   </si>
   <si>
+    <t xml:space="preserve">联发科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mediatek.zhiye.com/personal/deliveryRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网已投递(合肥)</t>
+  </si>
+  <si>
     <t xml:space="preserve">博世中国</t>
   </si>
   <si>
@@ -261,6 +270,12 @@
     <t xml:space="preserve">官网已投递(深圳)</t>
   </si>
   <si>
+    <t xml:space="preserve">阿里云</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.aliyun.com/personal/campus-application?lang=zh</t>
+  </si>
+  <si>
     <t xml:space="preserve">大疆创新</t>
   </si>
   <si>
@@ -288,9 +303,6 @@
     <t xml:space="preserve">espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111</t>
   </si>
   <si>
-    <t xml:space="preserve">日常实习</t>
-  </si>
-  <si>
     <t xml:space="preserve">兆易创新</t>
   </si>
   <si>
@@ -433,6 +445,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://zhaopin.ubtrobot.com/campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韶音科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs</t>
   </si>
 </sst>
 </file>
@@ -442,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -479,8 +497,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +515,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -528,7 +558,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -549,6 +579,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,6 +601,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -586,7 +632,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -640,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U41" activeCellId="0" sqref="U41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,13 +738,13 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
@@ -744,13 +790,13 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1"/>
@@ -760,10 +806,10 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1"/>
@@ -773,10 +819,10 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="1"/>
@@ -796,125 +842,122 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
+      <c r="B14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="0" t="s">
+    <row r="15" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="C16" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
+      <c r="B18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -925,76 +968,79 @@
         <v>5</v>
       </c>
       <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>24</v>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="1"/>
@@ -1002,99 +1048,100 @@
     </row>
     <row r="28" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="C29" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>74</v>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>24</v>
+      <c r="C32" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
+      <c r="C33" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="35" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>24</v>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1105,232 +1152,277 @@
       <c r="B36" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>31</v>
+      <c r="C40" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>24</v>
+      <c r="C42" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C43" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C47" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C48" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C50" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C51" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="C52" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="C53" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="C54" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C55" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>128</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1355,50 +1447,53 @@
     <hyperlink ref="B9" r:id="rId8" display="recruitment.t-head.cn/campus/home?lang=zh"/>
     <hyperlink ref="B10" r:id="rId9" display="roborock.zhiye.com/campus/jobs"/>
     <hyperlink ref="B11" r:id="rId10" location="/details?id=4878" display="campus.jd.com/#/details?id=4878"/>
-    <hyperlink ref="B12" r:id="rId11" display="bosch.com.cn/careers/job-offers/internship/"/>
-    <hyperlink ref="B13" r:id="rId12" display="insta360.com/cn/jobs"/>
-    <hyperlink ref="B14" r:id="rId13" display="talent.lenovo.com.cn/position?projectType=2"/>
-    <hyperlink ref="B15" r:id="rId14" display="nio.jobs.feishu.cn/campus"/>
-    <hyperlink ref="B16" r:id="rId15" display="campushr.hikvision.com/school?schoolType=nozxf"/>
-    <hyperlink ref="B17" r:id="rId16" display="inovance.zhiye.com/campus"/>
-    <hyperlink ref="B18" r:id="rId17" display="jobs.sophgo.com/trainee"/>
-    <hyperlink ref="B19" r:id="rId18" display="ponyai.jobs.feishu.cn/ponycampus/position/application"/>
-    <hyperlink ref="B20" r:id="rId19" location="/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=上海市" display="app.mokahr.com/campus-recruitment/zte/46903#/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82"/>
-    <hyperlink ref="B21" r:id="rId20" display="xiaopeng.jobs.feishu.cn/campus"/>
-    <hyperlink ref="B22" r:id="rId21" display="wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern"/>
-    <hyperlink ref="B23" r:id="rId22" display="www.lixiang.com/employ/campus.html?fromJob=1"/>
-    <hyperlink ref="B24" r:id="rId23" location="/school/home" display="job.byd.com/portal/pc/#/school/home"/>
-    <hyperlink ref="B25" r:id="rId24" display="https://www.unitree.com/cn/position"/>
-    <hyperlink ref="B26" r:id="rId25" display="united-imaging.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B27" r:id="rId26" display="https://campus.iflytek.com/official-pc/jobList"/>
-    <hyperlink ref="B28" r:id="rId27" display="thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
-    <hyperlink ref="B29" r:id="rId28" display="we.zyt.com/jobs"/>
-    <hyperlink ref="B30" r:id="rId29" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
-    <hyperlink ref="B32" r:id="rId30" display="talent.quectel.com/campus"/>
-    <hyperlink ref="B33" r:id="rId31" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
-    <hyperlink ref="B34" r:id="rId32" display="gigadevice.com.cn/about/career"/>
-    <hyperlink ref="B35" r:id="rId33" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
-    <hyperlink ref="B36" r:id="rId34" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
-    <hyperlink ref="B37" r:id="rId35" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
-    <hyperlink ref="B38" r:id="rId36" display="job.dahuatech.com/"/>
-    <hyperlink ref="B39" r:id="rId37" display="sensetime.com/cn/join-us"/>
-    <hyperlink ref="B40" r:id="rId38" location="/" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/"/>
-    <hyperlink ref="B41" r:id="rId39" display="verisilicon.com/cn/Careers"/>
-    <hyperlink ref="B42" r:id="rId40" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
-    <hyperlink ref="B43" r:id="rId41" display="realsil.com.cn/Home/PositionDetails/21"/>
-    <hyperlink ref="B44" r:id="rId42" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
-    <hyperlink ref="B45" r:id="rId43" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
-    <hyperlink ref="B46" r:id="rId44" display="career.anker-in.com/universities/recruitment"/>
-    <hyperlink ref="B47" r:id="rId45" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>
-    <hyperlink ref="B48" r:id="rId46" location="/jobs?keyword=" display="app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword="/>
-    <hyperlink ref="B49" r:id="rId47" display="dreame.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B50" r:id="rId48" display="www.mindmotion.com.cn/hr/"/>
-    <hyperlink ref="B51" r:id="rId49" display="https://bsthr.zhiye.com/intern"/>
-    <hyperlink ref="B52" r:id="rId50" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" display="https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70"/>
-    <hyperlink ref="B53" r:id="rId51" display="https://goertek.hotjob.cn/"/>
-    <hyperlink ref="B54" r:id="rId52" display="https://www.aispeech.com/about/joinus"/>
-    <hyperlink ref="B55" r:id="rId53" display="https://unisound.zhiye.com/campus"/>
-    <hyperlink ref="B57" r:id="rId54" display="https://zhaopin.ubtrobot.com/campus"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://mediatek.zhiye.com/personal/deliveryRecord"/>
+    <hyperlink ref="B13" r:id="rId12" display="bosch.com.cn/careers/job-offers/internship/"/>
+    <hyperlink ref="B14" r:id="rId13" display="insta360.com/cn/jobs"/>
+    <hyperlink ref="B15" r:id="rId14" display="talent.lenovo.com.cn/position?projectType=2"/>
+    <hyperlink ref="B16" r:id="rId15" display="nio.jobs.feishu.cn/campus"/>
+    <hyperlink ref="B17" r:id="rId16" display="campushr.hikvision.com/school?schoolType=nozxf"/>
+    <hyperlink ref="B18" r:id="rId17" display="inovance.zhiye.com/campus"/>
+    <hyperlink ref="B19" r:id="rId18" display="jobs.sophgo.com/trainee"/>
+    <hyperlink ref="B20" r:id="rId19" display="ponyai.jobs.feishu.cn/ponycampus/position/application"/>
+    <hyperlink ref="B21" r:id="rId20" location="/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=上海市" display="app.mokahr.com/campus-recruitment/zte/46903#/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82"/>
+    <hyperlink ref="B22" r:id="rId21" display="xiaopeng.jobs.feishu.cn/campus"/>
+    <hyperlink ref="B23" r:id="rId22" display="wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern"/>
+    <hyperlink ref="B24" r:id="rId23" display="www.lixiang.com/employ/campus.html?fromJob=1"/>
+    <hyperlink ref="B25" r:id="rId24" location="/school/home" display="job.byd.com/portal/pc/#/school/home"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://www.unitree.com/cn/position"/>
+    <hyperlink ref="B27" r:id="rId26" display="united-imaging.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://campus.iflytek.com/official-pc/jobList"/>
+    <hyperlink ref="B29" r:id="rId28" display="thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
+    <hyperlink ref="B30" r:id="rId29" display="we.zyt.com/jobs"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://careers.aliyun.com/personal/campus-application?lang=zh"/>
+    <hyperlink ref="B32" r:id="rId31" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
+    <hyperlink ref="B34" r:id="rId32" display="talent.quectel.com/campus"/>
+    <hyperlink ref="B35" r:id="rId33" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
+    <hyperlink ref="B36" r:id="rId34" display="gigadevice.com.cn/about/career"/>
+    <hyperlink ref="B37" r:id="rId35" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
+    <hyperlink ref="B38" r:id="rId36" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
+    <hyperlink ref="B39" r:id="rId37" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
+    <hyperlink ref="B40" r:id="rId38" display="job.dahuatech.com/"/>
+    <hyperlink ref="B41" r:id="rId39" display="sensetime.com/cn/join-us"/>
+    <hyperlink ref="B42" r:id="rId40" location="/" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/"/>
+    <hyperlink ref="B43" r:id="rId41" display="verisilicon.com/cn/Careers"/>
+    <hyperlink ref="B44" r:id="rId42" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
+    <hyperlink ref="B45" r:id="rId43" display="realsil.com.cn/Home/PositionDetails/21"/>
+    <hyperlink ref="B46" r:id="rId44" display="zhipin.com/gongsi/job/065fb86d5d93aefb1nJ-3d27GFE~.html?ka=company-jobs"/>
+    <hyperlink ref="B47" r:id="rId45" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
+    <hyperlink ref="B48" r:id="rId46" display="career.anker-in.com/universities/recruitment"/>
+    <hyperlink ref="B49" r:id="rId47" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>
+    <hyperlink ref="B50" r:id="rId48" location="/jobs?keyword=" display="app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword="/>
+    <hyperlink ref="B51" r:id="rId49" display="dreame.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B52" r:id="rId50" display="www.mindmotion.com.cn/hr/"/>
+    <hyperlink ref="B53" r:id="rId51" display="https://bsthr.zhiye.com/intern"/>
+    <hyperlink ref="B54" r:id="rId52" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" display="https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70"/>
+    <hyperlink ref="B55" r:id="rId53" display="https://goertek.hotjob.cn/"/>
+    <hyperlink ref="B56" r:id="rId54" display="https://www.aispeech.com/about/joinus"/>
+    <hyperlink ref="B57" r:id="rId55" display="https://unisound.zhiye.com/campus"/>
+    <hyperlink ref="B59" r:id="rId56" display="https://zhaopin.ubtrobot.com/campus"/>
+    <hyperlink ref="B60" r:id="rId57" location="/jobs" display="https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Work/RAIN公司记录.xlsx
+++ b/Work/RAIN公司记录.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\NoteRepo\Work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C561B322-EDF4-4F9B-B1A0-9B11F59AC1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="实习" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="实习" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="135">
-  <si>
-    <t xml:space="preserve">公司名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
+  <si>
+    <t>公司名称</t>
   </si>
   <si>
     <r>
@@ -33,7 +38,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">招聘官网</t>
+      <t>招聘官网</t>
     </r>
     <r>
       <rPr>
@@ -43,7 +48,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -53,438 +58,427 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">渠道</t>
+      <t>渠道</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">实习投递进度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华为技术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">career.huawei.com/reccampportal/portal5/campus-recruitment-detail.html?jobId=6557&amp;dataSource=1&amp;jobType=1&amp;recruitType=CR&amp;sourceType=001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr-campus.vivo.com/intern/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">careers.oppo.com/university/oppo/center/history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美团</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhaopin.meituan.com/web/position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(北京)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字节跳动</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs.bytedance.com/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(北京/上海)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">momenta.jobs.feishu.cn/intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(北京/上海/深圳)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小米</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiaomi.jobs.f.mioffice.cn/internship/?keywords=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=&amp;spread=6AA3R7B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(南京 + 日常)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平头哥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recruitment.t-head.cn/campus/home?lang=zh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石头科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roborock.zhiye.com/campus/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">没开</t>
-  </si>
-  <si>
-    <t xml:space="preserve">京东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campus.jd.com/#/details?id=4878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联发科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mediatek.zhiye.com/personal/deliveryRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(合肥)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博世中国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bosch.com.cn/careers/job-offers/internship/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6个月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">影石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insta360.com/cn/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联想</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talent.lenovo.com.cn/position?projectType=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔚来汽车</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nio.jobs.feishu.cn/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海康威视</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campushr.hikvision.com/school?schoolType=nozxf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(杭州)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">汇川技术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inovance.zhiye.com/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">算能科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs.sophgo.com/trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小马智行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ponyai.jobs.feishu.cn/ponycampus/position/application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中兴通讯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mokahr.com/campus-recruitment/zte/46903#/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小鹏汽车</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiaopeng.jobs.feishu.cn/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地平线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(南京)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理想汽车</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lixiang.com/employ/archives.html?fromJob=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比亚迪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job.byd.com/portal/pc/#/school/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宇数科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.unitree.com/cn/position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联影微电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">united-imaging.zhiye.com/campus/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科大讯飞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://campus.iflytek.com/official-pc/jobList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科创达</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卓驭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we.zyt.com/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递(深圳)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阿里云</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://careers.aliyun.com/personal/campus-application?lang=zh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大疆创新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we.dji.com/zh-CN/campus/position?from=home_page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无岗位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">睿赛德</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">移远通信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talent.quectel.com/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐鑫科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">兆易创新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gigadevice.com.cn/about/career</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瑞芯微电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全志科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">晶晨半导体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大华股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job.dahuatech.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商汤科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensetime.com/cn/join-us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寒武纪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.mokahr.com/campus-recruitment/cambricon/44201#/candidateHome/applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递（6个月北京）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">芯原股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verisilicon.com/cn/Careers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星环科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瑞晟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">realsil.com.cn/Home/PositionDetails/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">禾赛科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://kwh0jtf778.jobs.feishu.cn/073183/position/application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递（4个月以上）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华米科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安克创新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">career.anker-in.com/universities/recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奥比中光</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mokahr.com/campus_apply/orbbec/2679#/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">涂鸦智能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">追觅科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreame.zhiye.com/campus/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灵动微电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.mindmotion.com.cn/hr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑芝麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bsthr.zhiye.com/intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">速腾聚创</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">歌尔股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://goertek.hotjob.cn/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">思必驰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aispeech.com/about/joinus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云知声</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://unisound.zhiye.com/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普渡科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优必选</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zhaopin.ubtrobot.com/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韶音科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs</t>
+    <t>实习投递进度</t>
+  </si>
+  <si>
+    <t>华为技术</t>
+  </si>
+  <si>
+    <t>career.huawei.com/reccampportal/portal5/campus-recruitment-detail.html?jobId=6557&amp;dataSource=1&amp;jobType=1&amp;recruitType=CR&amp;sourceType=001</t>
+  </si>
+  <si>
+    <t>官网已投递</t>
+  </si>
+  <si>
+    <t>VIVO</t>
+  </si>
+  <si>
+    <t>hr-campus.vivo.com/intern/jobs</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>careers.oppo.com/university/oppo/center/history</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>zhaopin.meituan.com/web/position</t>
+  </si>
+  <si>
+    <t>官网已投递(北京)</t>
+  </si>
+  <si>
+    <t>字节跳动</t>
+  </si>
+  <si>
+    <t>jobs.bytedance.com/campus</t>
+  </si>
+  <si>
+    <t>官网已投递(北京/上海)</t>
+  </si>
+  <si>
+    <t>Momenta</t>
+  </si>
+  <si>
+    <t>momenta.jobs.feishu.cn/intern</t>
+  </si>
+  <si>
+    <t>官网已投递(北京/上海/深圳)</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>xiaomi.jobs.f.mioffice.cn/internship/?keywords=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=&amp;spread=6AA3R7B</t>
+  </si>
+  <si>
+    <t>官网已投递(南京 + 日常)</t>
+  </si>
+  <si>
+    <t>平头哥</t>
+  </si>
+  <si>
+    <t>recruitment.t-head.cn/campus/home?lang=zh</t>
+  </si>
+  <si>
+    <t>石头科技</t>
+  </si>
+  <si>
+    <t>roborock.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>没开</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>campus.jd.com/#/details?id=4878</t>
+  </si>
+  <si>
+    <t>联发科</t>
+  </si>
+  <si>
+    <t>https://mediatek.zhiye.com/personal/deliveryRecord</t>
+  </si>
+  <si>
+    <t>官网已投递(合肥)</t>
+  </si>
+  <si>
+    <t>博世中国</t>
+  </si>
+  <si>
+    <t>bosch.com.cn/careers/job-offers/internship/</t>
+  </si>
+  <si>
+    <t>6个月</t>
+  </si>
+  <si>
+    <t>影石</t>
+  </si>
+  <si>
+    <t>insta360.com/cn/jobs</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
+    <t>talent.lenovo.com.cn/position?projectType=2</t>
+  </si>
+  <si>
+    <t>蔚来汽车</t>
+  </si>
+  <si>
+    <t>nio.jobs.feishu.cn/campus</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>campushr.hikvision.com/school?schoolType=nozxf</t>
+  </si>
+  <si>
+    <t>官网已投递(杭州)</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>inovance.zhiye.com/campus</t>
+  </si>
+  <si>
+    <t>算能科技</t>
+  </si>
+  <si>
+    <t>jobs.sophgo.com/trainee</t>
+  </si>
+  <si>
+    <t>小马智行</t>
+  </si>
+  <si>
+    <t>ponyai.jobs.feishu.cn/ponycampus/position/application</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>app.mokahr.com/campus-recruitment/zte/46903#/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>小鹏汽车</t>
+  </si>
+  <si>
+    <t>xiaopeng.jobs.feishu.cn/campus</t>
+  </si>
+  <si>
+    <t>地平线</t>
+  </si>
+  <si>
+    <t>wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern</t>
+  </si>
+  <si>
+    <t>官网已投递(南京)</t>
+  </si>
+  <si>
+    <t>理想汽车</t>
+  </si>
+  <si>
+    <t>https://www.lixiang.com/employ/archives.html?fromJob=1</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>job.byd.com/portal/pc/#/school/home</t>
+  </si>
+  <si>
+    <t>宇数科技</t>
+  </si>
+  <si>
+    <t>https://www.unitree.com/cn/position</t>
+  </si>
+  <si>
+    <t>联影微电子</t>
+  </si>
+  <si>
+    <t>united-imaging.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/jobList</t>
+  </si>
+  <si>
+    <t>中科创达</t>
+  </si>
+  <si>
+    <t>thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
+  </si>
+  <si>
+    <t>卓驭</t>
+  </si>
+  <si>
+    <t>we.zyt.com/jobs</t>
+  </si>
+  <si>
+    <t>官网已投递(深圳)</t>
+  </si>
+  <si>
+    <t>阿里云</t>
+  </si>
+  <si>
+    <t>https://careers.aliyun.com/personal/campus-application?lang=zh</t>
+  </si>
+  <si>
+    <t>大疆创新</t>
+  </si>
+  <si>
+    <t>we.dji.com/zh-CN/campus/position?from=home_page</t>
+  </si>
+  <si>
+    <t>无岗位</t>
+  </si>
+  <si>
+    <t>睿赛德</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>移远通信</t>
+  </si>
+  <si>
+    <t>talent.quectel.com/campus</t>
+  </si>
+  <si>
+    <t>乐鑫科技</t>
+  </si>
+  <si>
+    <t>espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>gigadevice.com.cn/about/career</t>
+  </si>
+  <si>
+    <t>瑞芯微电子</t>
+  </si>
+  <si>
+    <t>rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html</t>
+  </si>
+  <si>
+    <t>全志科技</t>
+  </si>
+  <si>
+    <t>zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html</t>
+  </si>
+  <si>
+    <t>晶晨半导体</t>
+  </si>
+  <si>
+    <t>zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro</t>
+  </si>
+  <si>
+    <t>大华股份</t>
+  </si>
+  <si>
+    <t>job.dahuatech.com/</t>
+  </si>
+  <si>
+    <t>商汤科技</t>
+  </si>
+  <si>
+    <t>sensetime.com/cn/join-us</t>
+  </si>
+  <si>
+    <t>寒武纪</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/cambricon/44201#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>官网已投递（6个月北京）</t>
+  </si>
+  <si>
+    <t>芯原股份</t>
+  </si>
+  <si>
+    <t>verisilicon.com/cn/Careers</t>
+  </si>
+  <si>
+    <t>星环科技</t>
+  </si>
+  <si>
+    <t>app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList</t>
+  </si>
+  <si>
+    <t>瑞晟</t>
+  </si>
+  <si>
+    <t>realsil.com.cn/Home/PositionDetails/21</t>
+  </si>
+  <si>
+    <t>禾赛科技</t>
+  </si>
+  <si>
+    <t>https://kwh0jtf778.jobs.feishu.cn/073183/position/application</t>
+  </si>
+  <si>
+    <t>官网已投递（4个月以上）</t>
+  </si>
+  <si>
+    <t>华米科技</t>
+  </si>
+  <si>
+    <t>zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
+  </si>
+  <si>
+    <t>安克创新</t>
+  </si>
+  <si>
+    <t>career.anker-in.com/universities/recruitment</t>
+  </si>
+  <si>
+    <t>奥比中光</t>
+  </si>
+  <si>
+    <t>app.mokahr.com/campus_apply/orbbec/2679#/</t>
+  </si>
+  <si>
+    <t>涂鸦智能</t>
+  </si>
+  <si>
+    <t>app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword=</t>
+  </si>
+  <si>
+    <t>追觅科技</t>
+  </si>
+  <si>
+    <t>dreame.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>灵动微电子</t>
+  </si>
+  <si>
+    <t>www.mindmotion.com.cn/hr/</t>
+  </si>
+  <si>
+    <t>黑芝麻</t>
+  </si>
+  <si>
+    <t>https://bsthr.zhiye.com/intern</t>
+  </si>
+  <si>
+    <t>速腾聚创</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>https://goertek.hotjob.cn/</t>
+  </si>
+  <si>
+    <t>思必驰</t>
+  </si>
+  <si>
+    <t>https://www.aispeech.com/about/joinus</t>
+  </si>
+  <si>
+    <t>云知声</t>
+  </si>
+  <si>
+    <t>https://unisound.zhiye.com/campus</t>
+  </si>
+  <si>
+    <t>普渡科技</t>
+  </si>
+  <si>
+    <t>优必选</t>
+  </si>
+  <si>
+    <t>https://zhaopin.ubtrobot.com/campus</t>
+  </si>
+  <si>
+    <t>韶音科技</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs</t>
+  </si>
+  <si>
+    <t>三星</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dearsamsung.zhiye.com/personal/deliveryRecord</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -501,9 +495,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -524,7 +524,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -532,81 +532,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -665,31 +636,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.62"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +981,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,7 +994,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="35.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -728,7 +1007,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="36.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -741,7 +1020,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -754,7 +1033,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -767,7 +1046,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -780,7 +1059,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -793,7 +1072,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="29.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -806,11 +1085,11 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -819,7 +1098,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="29.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -832,7 +1111,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -845,11 +1124,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="29.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -858,11 +1137,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="30.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -871,7 +1150,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="37.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -884,11 +1163,11 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="30.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -896,7 +1175,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="39.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -909,11 +1188,11 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="39.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -922,7 +1201,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="39.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -935,7 +1214,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="39.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -948,7 +1227,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="41.25" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -960,11 +1239,11 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="39" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -976,7 +1255,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="39" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -988,7 +1267,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="39" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -1000,11 +1279,11 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="39" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1012,11 +1291,11 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="39" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1024,11 +1303,11 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="33" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1037,7 +1316,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="33" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -1050,11 +1329,11 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="33" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1063,7 +1342,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="39" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1075,7 +1354,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="39" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -1087,11 +1366,11 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="33" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1099,24 +1378,24 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" ht="29.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" ht="33.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1124,7 +1403,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="36" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -1136,11 +1415,11 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="32.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1148,11 +1427,11 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" ht="42.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1160,11 +1439,11 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" ht="32.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1172,11 +1451,11 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" ht="31.5" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1184,11 +1463,11 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" ht="42" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1196,11 +1475,11 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="28.5" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1208,7 +1487,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" ht="34.5" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>96</v>
       </c>
@@ -1220,11 +1499,11 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" ht="30.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1232,11 +1511,11 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" ht="26.25" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -1244,18 +1523,18 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" ht="30" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" ht="37.5" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -1266,84 +1545,84 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" ht="48.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>109</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" ht="43.5" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="36.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>113</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="49.5" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="36" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="34.5" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>119</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="38.25" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>121</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" ht="48.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>122</v>
       </c>
@@ -1354,132 +1633,137 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="35.25" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>125</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="35.25" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="34.5" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="31.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="40.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="33.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="61" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="career.huawei.com/reccampportal/portal5/campus-recruitment-detail.html?jobId=6557&amp;dataSource=1&amp;jobType=1&amp;recruitType=CR&amp;sourceType=001"/>
-    <hyperlink ref="B3" r:id="rId2" display="hr-campus.vivo.com/intern/jobs"/>
-    <hyperlink ref="B4" r:id="rId3" display="careers.oppo.com/university/oppo/center/history"/>
-    <hyperlink ref="B5" r:id="rId4" display="zhaopin.meituan.com/web/position"/>
-    <hyperlink ref="B6" r:id="rId5" display="jobs.bytedance.com/campus"/>
-    <hyperlink ref="B7" r:id="rId6" display="momenta.jobs.feishu.cn/intern"/>
-    <hyperlink ref="B8" r:id="rId7" display="xiaomi.jobs.f.mioffice.cn/internship/?keywords=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=&amp;spread=6AA3R7B"/>
-    <hyperlink ref="B9" r:id="rId8" display="recruitment.t-head.cn/campus/home?lang=zh"/>
-    <hyperlink ref="B10" r:id="rId9" display="roborock.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B11" r:id="rId10" location="/details?id=4878" display="campus.jd.com/#/details?id=4878"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://mediatek.zhiye.com/personal/deliveryRecord"/>
-    <hyperlink ref="B13" r:id="rId12" display="bosch.com.cn/careers/job-offers/internship/"/>
-    <hyperlink ref="B14" r:id="rId13" display="insta360.com/cn/jobs"/>
-    <hyperlink ref="B15" r:id="rId14" display="talent.lenovo.com.cn/position?projectType=2"/>
-    <hyperlink ref="B16" r:id="rId15" display="nio.jobs.feishu.cn/campus"/>
-    <hyperlink ref="B17" r:id="rId16" display="campushr.hikvision.com/school?schoolType=nozxf"/>
-    <hyperlink ref="B18" r:id="rId17" display="inovance.zhiye.com/campus"/>
-    <hyperlink ref="B19" r:id="rId18" display="jobs.sophgo.com/trainee"/>
-    <hyperlink ref="B20" r:id="rId19" display="ponyai.jobs.feishu.cn/ponycampus/position/application"/>
-    <hyperlink ref="B21" r:id="rId20" location="/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=上海市" display="app.mokahr.com/campus-recruitment/zte/46903#/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82"/>
-    <hyperlink ref="B22" r:id="rId21" display="xiaopeng.jobs.feishu.cn/campus"/>
-    <hyperlink ref="B23" r:id="rId22" display="wecruit.hotjob.cn/SU6409ef49bef57c635fd390a6/pb/posDetail.html?postId=677f99111c240e1e5bcba494&amp;postType=intern"/>
-    <hyperlink ref="B24" r:id="rId23" display="https://www.lixiang.com/employ/archives.html?fromJob=1"/>
-    <hyperlink ref="B25" r:id="rId24" location="/school/home" display="job.byd.com/portal/pc/#/school/home"/>
-    <hyperlink ref="B26" r:id="rId25" display="https://www.unitree.com/cn/position"/>
-    <hyperlink ref="B27" r:id="rId26" display="united-imaging.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B28" r:id="rId27" display="https://campus.iflytek.com/official-pc/jobList"/>
-    <hyperlink ref="B29" r:id="rId28" display="thundersoft.jobs.feishu.cn/campus/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
-    <hyperlink ref="B30" r:id="rId29" display="we.zyt.com/jobs"/>
-    <hyperlink ref="B31" r:id="rId30" display="https://careers.aliyun.com/personal/campus-application?lang=zh"/>
-    <hyperlink ref="B32" r:id="rId31" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
-    <hyperlink ref="B34" r:id="rId32" display="talent.quectel.com/campus"/>
-    <hyperlink ref="B35" r:id="rId33" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
-    <hyperlink ref="B36" r:id="rId34" display="gigadevice.com.cn/about/career"/>
-    <hyperlink ref="B37" r:id="rId35" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
-    <hyperlink ref="B38" r:id="rId36" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
-    <hyperlink ref="B39" r:id="rId37" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
-    <hyperlink ref="B40" r:id="rId38" display="job.dahuatech.com/"/>
-    <hyperlink ref="B41" r:id="rId39" display="sensetime.com/cn/join-us"/>
-    <hyperlink ref="B42" r:id="rId40" location="/candidateHome/applications" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/candidateHome/applications"/>
-    <hyperlink ref="B43" r:id="rId41" display="verisilicon.com/cn/Careers"/>
-    <hyperlink ref="B44" r:id="rId42" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
-    <hyperlink ref="B45" r:id="rId43" display="realsil.com.cn/Home/PositionDetails/21"/>
-    <hyperlink ref="B46" r:id="rId44" display="https://kwh0jtf778.jobs.feishu.cn/073183/position/application"/>
-    <hyperlink ref="B47" r:id="rId45" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
-    <hyperlink ref="B48" r:id="rId46" display="career.anker-in.com/universities/recruitment"/>
-    <hyperlink ref="B49" r:id="rId47" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>
-    <hyperlink ref="B50" r:id="rId48" location="/jobs?keyword=" display="app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword="/>
-    <hyperlink ref="B51" r:id="rId49" display="dreame.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B52" r:id="rId50" display="www.mindmotion.com.cn/hr/"/>
-    <hyperlink ref="B53" r:id="rId51" display="https://bsthr.zhiye.com/intern"/>
-    <hyperlink ref="B54" r:id="rId52" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" display="https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70"/>
-    <hyperlink ref="B55" r:id="rId53" display="https://goertek.hotjob.cn/"/>
-    <hyperlink ref="B56" r:id="rId54" display="https://www.aispeech.com/about/joinus"/>
-    <hyperlink ref="B57" r:id="rId55" display="https://unisound.zhiye.com/campus"/>
-    <hyperlink ref="B59" r:id="rId56" display="https://zhaopin.ubtrobot.com/campus"/>
-    <hyperlink ref="B60" r:id="rId57" location="/jobs" display="https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" location="/details?id=4878" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" location="/jobs?project=100076448&amp;page=1&amp;anchorName=jobsList&amp;keyword=&amp;zhineng%5B0%5D=72363&amp;location%5B0%5D=上海市" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" location="/school/home" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B42" r:id="rId40" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B44" r:id="rId42" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B49" r:id="rId47" location="/" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B50" r:id="rId48" location="/jobs?keyword=" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B54" r:id="rId52" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B60" r:id="rId57" location="/jobs" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B61" r:id="rId58" xr:uid="{70AF6D21-6B2F-4780-A3CB-E968371F1154}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Work/RAIN公司记录.xlsx
+++ b/Work/RAIN公司记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="187">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -204,6 +204,9 @@
     <t xml:space="preserve">inovance.zhiye.com/campus</t>
   </si>
   <si>
+    <t xml:space="preserve">无岗位</t>
+  </si>
+  <si>
     <t xml:space="preserve">算能科技</t>
   </si>
   <si>
@@ -294,184 +297,319 @@
     <t xml:space="preserve">we.dji.com/zh-CN/campus/position?from=home_page</t>
   </si>
   <si>
-    <t xml:space="preserve">无岗位</t>
-  </si>
-  <si>
     <t xml:space="preserve">睿赛德</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.zhipin.com/gongsi/job/387c0b01a416430b33dy0t24.html?ka=company-jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移远通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talent.quectel.com/campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐鑫科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兆易创新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gigadevice.com.cn/about/career</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瑞芯微电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全志科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晶晨半导体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大华股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job.dahuatech.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商汤科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensetime.com/cn/join-us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寒武纪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.mokahr.com/campus-recruitment/cambricon/44201#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网已投递（6个月北京）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芯原股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verisilicon.com/cn/Careers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星环科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瑞晟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realsil.com.cn/Home/PositionDetails/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">禾赛科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kwh0jtf778.jobs.feishu.cn/073183/position/application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网已投递（4个月以上）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华米科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安克创新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">career.anker-in.com/universities/recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奥比中光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.mokahr.com/campus_apply/orbbec/2679#/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">涂鸦智能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追觅科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreame.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灵动微电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.mindmotion.com.cn/hr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑芝麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bsthr.zhiye.com/intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">速腾聚创</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歌尔股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://goertek.hotjob.cn/SU65dd9ebd1c240e4b11c4f491/pb/account.html#/myDeliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">思必驰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aispeech.com/about/joinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">云知声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unisound.zhiye.com/campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优必选</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zhaopin.ubtrobot.com/campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韶音科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虹软科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://career.arcsoft.com.cn/intern/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麦谷科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mapgoo.net/html/about.html?type=joinUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科沃斯</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOSS</t>
   </si>
   <si>
-    <t xml:space="preserve">移远通信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talent.quectel.com/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐鑫科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">兆易创新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gigadevice.com.cn/about/career</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瑞芯微电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全志科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">晶晨半导体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大华股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job.dahuatech.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商汤科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensetime.com/cn/join-us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寒武纪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.mokahr.com/campus-recruitment/cambricon/44201#/candidateHome/applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递（6个月北京）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">芯原股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verisilicon.com/cn/Careers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星环科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瑞晟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">realsil.com.cn/Home/PositionDetails/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">禾赛科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://kwh0jtf778.jobs.feishu.cn/073183/position/application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官网已投递（4个月以上）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华米科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安克创新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">career.anker-in.com/universities/recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奥比中光</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mokahr.com/campus_apply/orbbec/2679#/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">涂鸦智能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">追觅科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreame.zhiye.com/campus/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灵动微电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.mindmotion.com.cn/hr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑芝麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bsthr.zhiye.com/intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">速腾聚创</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">歌尔股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://goertek.hotjob.cn/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">思必驰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aispeech.com/about/joinus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云知声</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://unisound.zhiye.com/campus</t>
+    <t xml:space="preserve">云迹科技</t>
   </si>
   <si>
     <t xml:space="preserve">普渡科技</t>
   </si>
   <si>
-    <t xml:space="preserve">优必选</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zhaopin.ubtrobot.com/campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韶音科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">虹软科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://career.arcsoft.com.cn/intern/jobs</t>
+    <t xml:space="preserve">擎朗智能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">云深处</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其域创新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.xgrids.cn/joinUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">零跑汽车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leapmotor.zhiye.com/intern/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">错过了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">极氪汽车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://job.zeekrlife.com/#/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中新赛克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://recruit.sinovatio.com/positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新产业医疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://snibe.zhiye.com/intern/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文远知行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.mokahr.com/campus_apply/jingchi/2137#/jobs?keyword=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">格力电器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zhaopin.greeyun.com/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp-link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hr.tp-link.com.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斑马智行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://banma.zhiye.com/intern/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉川机器人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.mokahr.com/social-recruitment/3irobotics/78360#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">极智嘉机器人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.mokahr.com/campus_apply/geekplus/77928#/jobs?location=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;page=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中科曙光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zhipin.com/gongsi/job/31b75c73e218524c33182tw~.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">禾望电气</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hopewind.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海尔集团</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://maker.haier.net/client/campus/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">诺瓦星云</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://novastar.zhiye.com/intern/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.cvte.com/zone/resume/applications?activeKey=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.midea.com/schoolOut/post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">佰维存储</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biwin1.zhiye.com/campus/jobs?LocId=%5B%7B%22id%22%3A%223301%22%2C%22label%22%3A%22%E6%9D%AD%E5%B7%9E%E5%B8%82%22%7D%5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芯云科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jsnebula.com/list_29/</t>
   </si>
 </sst>
 </file>
@@ -481,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -525,6 +663,18 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -584,7 +734,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -633,11 +783,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,10 +885,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -851,13 +1017,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1"/>
@@ -985,17 +1151,17 @@
         <v>50</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -1005,10 +1171,10 @@
     </row>
     <row r="22" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
@@ -1018,10 +1184,10 @@
     </row>
     <row r="23" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -1029,15 +1195,15 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>5</v>
@@ -1046,22 +1212,22 @@
     </row>
     <row r="25" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1070,10 +1236,10 @@
     </row>
     <row r="27" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>29</v>
@@ -1082,10 +1248,10 @@
     </row>
     <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>29</v>
@@ -1094,10 +1260,10 @@
     </row>
     <row r="29" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>29</v>
@@ -1107,10 +1273,10 @@
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>29</v>
@@ -1120,10 +1286,10 @@
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>29</v>
@@ -1133,10 +1299,10 @@
     </row>
     <row r="32" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>8</v>
@@ -1144,26 +1310,26 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -1174,9 +1340,6 @@
       <c r="B35" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
@@ -1277,13 +1440,13 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D44" s="1"/>
@@ -1327,7 +1490,7 @@
       <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1423,14 +1586,14 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>29</v>
+      <c r="C57" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1455,42 +1618,294 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="0" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C62" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1528,33 +1943,54 @@
     <hyperlink ref="B32" r:id="rId31" display="we.zyt.com/jobs"/>
     <hyperlink ref="B33" r:id="rId32" display="https://careers.aliyun.com/personal/campus-application?lang=zh"/>
     <hyperlink ref="B34" r:id="rId33" display="we.dji.com/zh-CN/campus/position?from=home_page"/>
-    <hyperlink ref="B36" r:id="rId34" display="talent.quectel.com/campus"/>
-    <hyperlink ref="B37" r:id="rId35" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
-    <hyperlink ref="B38" r:id="rId36" display="gigadevice.com.cn/about/career"/>
-    <hyperlink ref="B39" r:id="rId37" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
-    <hyperlink ref="B40" r:id="rId38" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
-    <hyperlink ref="B41" r:id="rId39" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
-    <hyperlink ref="B42" r:id="rId40" display="job.dahuatech.com/"/>
-    <hyperlink ref="B43" r:id="rId41" display="sensetime.com/cn/join-us"/>
-    <hyperlink ref="B44" r:id="rId42" location="/candidateHome/applications" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/candidateHome/applications"/>
-    <hyperlink ref="B45" r:id="rId43" display="verisilicon.com/cn/Careers"/>
-    <hyperlink ref="B46" r:id="rId44" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
-    <hyperlink ref="B47" r:id="rId45" display="realsil.com.cn/Home/PositionDetails/21"/>
-    <hyperlink ref="B48" r:id="rId46" display="https://kwh0jtf778.jobs.feishu.cn/073183/position/application"/>
-    <hyperlink ref="B49" r:id="rId47" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
-    <hyperlink ref="B50" r:id="rId48" display="career.anker-in.com/universities/recruitment"/>
-    <hyperlink ref="B51" r:id="rId49" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>
-    <hyperlink ref="B52" r:id="rId50" location="/jobs?keyword=" display="app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword="/>
-    <hyperlink ref="B53" r:id="rId51" display="dreame.zhiye.com/campus/jobs"/>
-    <hyperlink ref="B54" r:id="rId52" display="www.mindmotion.com.cn/hr/"/>
-    <hyperlink ref="B55" r:id="rId53" display="https://bsthr.zhiye.com/intern"/>
-    <hyperlink ref="B56" r:id="rId54" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" display="https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70"/>
-    <hyperlink ref="B57" r:id="rId55" display="https://goertek.hotjob.cn/"/>
-    <hyperlink ref="B58" r:id="rId56" display="https://www.aispeech.com/about/joinus"/>
-    <hyperlink ref="B59" r:id="rId57" display="https://unisound.zhiye.com/campus"/>
-    <hyperlink ref="B61" r:id="rId58" display="https://zhaopin.ubtrobot.com/campus"/>
-    <hyperlink ref="B62" r:id="rId59" location="/jobs" display="https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs"/>
-    <hyperlink ref="B63" r:id="rId60" display="https://career.arcsoft.com.cn/intern/jobs"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://www.zhipin.com/gongsi/job/387c0b01a416430b33dy0t24.html?ka=company-jobs"/>
+    <hyperlink ref="B36" r:id="rId35" display="talent.quectel.com/campus"/>
+    <hyperlink ref="B37" r:id="rId36" display="espressif.com/zh-hans/join-us/job-search?title=%E5%B5%8C%E5%85%A5%E5%BC%8F&amp;field_classification_value=Campus&amp;field_job_location_select_tid%5B%5D=111"/>
+    <hyperlink ref="B38" r:id="rId37" display="gigadevice.com.cn/about/career"/>
+    <hyperlink ref="B39" r:id="rId38" display="rock-chips.com/a/cn/jobs/xiaoyuanzhaopin/index.html"/>
+    <hyperlink ref="B40" r:id="rId39" display="zhipin.com/gongsi/bf8ca364fc9718051Xx72dS-GQ~~.html"/>
+    <hyperlink ref="B41" r:id="rId40" display="zhipin.com/gongsi/fa9841f46ed6a0600HJz2N-6.html?ka=company-intro"/>
+    <hyperlink ref="B42" r:id="rId41" display="job.dahuatech.com/"/>
+    <hyperlink ref="B43" r:id="rId42" display="sensetime.com/cn/join-us"/>
+    <hyperlink ref="B44" r:id="rId43" location="/candidateHome/applications" display="https://app.mokahr.com/campus-recruitment/cambricon/44201#/candidateHome/applications"/>
+    <hyperlink ref="B45" r:id="rId44" display="verisilicon.com/cn/Careers"/>
+    <hyperlink ref="B46" r:id="rId45" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="app.mokahr.com/campus_apply/transwarp/3196#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
+    <hyperlink ref="B47" r:id="rId46" display="realsil.com.cn/Home/PositionDetails/21"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://kwh0jtf778.jobs.feishu.cn/073183/position/application"/>
+    <hyperlink ref="B49" r:id="rId48" display="zepp.jobs.feishu.cn/index/?keywords=&amp;category=&amp;location=&amp;project=&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;tag="/>
+    <hyperlink ref="B50" r:id="rId49" display="career.anker-in.com/universities/recruitment"/>
+    <hyperlink ref="B51" r:id="rId50" location="/" display="app.mokahr.com/campus_apply/orbbec/2679#/"/>
+    <hyperlink ref="B52" r:id="rId51" location="/jobs?keyword=" display="app.mokahr.com/campus_apply/tuya/3235#/jobs?keyword="/>
+    <hyperlink ref="B53" r:id="rId52" display="dreame.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B54" r:id="rId53" display="www.mindmotion.com.cn/hr/"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://bsthr.zhiye.com/intern"/>
+    <hyperlink ref="B56" r:id="rId55" location="/job/7b5fde81-0713-4e58-aba2-4a217be95c70" display="https://app.mokahr.com/social-recruitment/robosense/118867#/job/7b5fde81-0713-4e58-aba2-4a217be95c70"/>
+    <hyperlink ref="B57" r:id="rId56" location="/myDeliver" display="https://goertek.hotjob.cn/SU65dd9ebd1c240e4b11c4f491/pb/account.html#/myDeliver"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://www.aispeech.com/about/joinus"/>
+    <hyperlink ref="B59" r:id="rId58" display="https://unisound.zhiye.com/campus"/>
+    <hyperlink ref="B60" r:id="rId59" display="https://zhaopin.ubtrobot.com/campus"/>
+    <hyperlink ref="B61" r:id="rId60" location="/jobs" display="https://app.mokahr.com/campus_apply/aftershokzhr/36940?recommendCode=DSppFmNG#/jobs"/>
+    <hyperlink ref="B62" r:id="rId61" display="https://career.arcsoft.com.cn/intern/jobs"/>
+    <hyperlink ref="B63" r:id="rId62" display="http://www.mapgoo.net/html/about.html?type=joinUs"/>
+    <hyperlink ref="B69" r:id="rId63" display="https://www.xgrids.cn/joinUs"/>
+    <hyperlink ref="B70" r:id="rId64" display="https://leapmotor.zhiye.com/intern/jobs"/>
+    <hyperlink ref="B71" r:id="rId65" location="/jobs" display="https://job.zeekrlife.com/#/jobs"/>
+    <hyperlink ref="B72" r:id="rId66" display="https://recruit.sinovatio.com/positions"/>
+    <hyperlink ref="B73" r:id="rId67" display="https://snibe.zhiye.com/intern/jobs"/>
+    <hyperlink ref="B74" r:id="rId68" location="/jobs?keyword=" display="https://app.mokahr.com/campus_apply/jingchi/2137#/jobs?keyword="/>
+    <hyperlink ref="B75" r:id="rId69" display="https://zhaopin.greeyun.com/home"/>
+    <hyperlink ref="B76" r:id="rId70" display="https://hr.tp-link.com.cn/"/>
+    <hyperlink ref="B77" r:id="rId71" display="https://banma.zhiye.com/intern/jobs"/>
+    <hyperlink ref="B78" r:id="rId72" location="/jobs?keyword=&amp;page=1&amp;anchorName=jobsList" display="https://app.mokahr.com/social-recruitment/3irobotics/78360#/jobs?keyword=&amp;page=1&amp;anchorName=jobsList"/>
+    <hyperlink ref="B79" r:id="rId73" location="/jobs?location=北京市&amp;page=1" display="https://app.mokahr.com/campus_apply/geekplus/77928#/jobs?location=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;page=1"/>
+    <hyperlink ref="B80" r:id="rId74" display="https://www.zhipin.com/gongsi/job/31b75c73e218524c33182tw~.html"/>
+    <hyperlink ref="B81" r:id="rId75" display="https://hopewind.zhiye.com/campus/jobs"/>
+    <hyperlink ref="B82" r:id="rId76" display="https://maker.haier.net/client/campus/index.html"/>
+    <hyperlink ref="B83" r:id="rId77" display="https://novastar.zhiye.com/intern/jobs"/>
+    <hyperlink ref="B84" r:id="rId78" display="https://careers.cvte.com/zone/resume/applications?activeKey=1"/>
+    <hyperlink ref="B85" r:id="rId79" display="https://careers.midea.com/schoolOut/post"/>
+    <hyperlink ref="B86" r:id="rId80" display="https://biwin1.zhiye.com/campus/jobs?LocId=%5B%7B%22id%22%3A%223301%22%2C%22label%22%3A%22%E6%9D%AD%E5%B7%9E%E5%B8%82%22%7D%5D"/>
+    <hyperlink ref="B87" r:id="rId81" display="http://www.jsnebula.com/list_29/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
